--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value993.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value993.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.603257244780262</v>
+        <v>0.2782779633998871</v>
       </c>
       <c r="B1">
-        <v>4.418098986569536</v>
+        <v>0.1977447122335434</v>
       </c>
       <c r="C1">
-        <v>4.192620426924534</v>
+        <v>0.2158285528421402</v>
       </c>
       <c r="D1">
-        <v>1.224202954235001</v>
+        <v>4.53001880645752</v>
       </c>
       <c r="E1">
-        <v>0.7425172784056652</v>
+        <v>1.816592216491699</v>
       </c>
     </row>
   </sheetData>
